--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/GEORGIA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/GEORGIA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1614"/>
+  <dimension ref="A1:D1608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C36">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C39">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C41">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C47">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C50">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C76">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C81">
@@ -1525,7 +1525,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C88">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C89">
@@ -2037,7 +2037,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C127">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C129">
@@ -2387,7 +2387,7 @@
         <v>25</v>
       </c>
       <c r="D153">
-        <v>0.0009713264433910949</v>
+        <v>0.0009713264433910948</v>
       </c>
     </row>
     <row r="154">
@@ -2497,7 +2497,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C162">
@@ -2645,7 +2645,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C173">
@@ -2671,7 +2671,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C179">
@@ -2915,7 +2915,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C193">
@@ -3097,7 +3097,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C207">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C210">
@@ -3201,7 +3201,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C215">
@@ -3214,7 +3214,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C216">
@@ -3331,12 +3331,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C225">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C228">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C229">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C230">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C236">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C242">
@@ -3590,13 +3590,13 @@
         <v>24</v>
       </c>
       <c r="D244">
-        <v>0.0009324733856554511</v>
+        <v>0.0009324733856554512</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C245">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C251">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C258">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C259">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C273">
@@ -4077,7 +4077,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C282">
@@ -4103,7 +4103,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C284">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C286">
@@ -4214,7 +4214,7 @@
         <v>24</v>
       </c>
       <c r="D292">
-        <v>0.0009324733856554511</v>
+        <v>0.0009324733856554512</v>
       </c>
     </row>
     <row r="293">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C296">
@@ -4415,7 +4415,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C308">
@@ -4480,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C313">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C314">
@@ -4506,7 +4506,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C315">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C316">
@@ -4680,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C328">
@@ -4693,7 +4693,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C329">
@@ -4706,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C330">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C338">
@@ -4862,7 +4862,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C342">
@@ -4966,7 +4966,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C350">
@@ -5018,7 +5018,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C354">
@@ -5044,7 +5044,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C356">
@@ -5070,7 +5070,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C358">
@@ -5096,20 +5096,20 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C360">
         <v>24</v>
       </c>
       <c r="D360">
-        <v>0.0009324733856554511</v>
+        <v>0.0009324733856554512</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C361">
@@ -5174,7 +5174,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C366">
@@ -5246,7 +5246,7 @@
         <v>2353</v>
       </c>
       <c r="D371">
-        <v>0.09142124485196985</v>
+        <v>0.09142124485196984</v>
       </c>
     </row>
     <row r="372">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C372">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C374">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C375">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C379">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C380">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C382">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C383">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C386">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C387">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C388">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C389">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C394">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C395">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C399">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C400">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C406">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C407">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C409">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C410">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C412">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C415">
@@ -5985,7 +5985,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C428">
@@ -6011,7 +6011,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C430">
@@ -6037,7 +6037,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C432">
@@ -6063,7 +6063,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C434">
@@ -6102,7 +6102,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C437">
@@ -6244,13 +6244,13 @@
         <v>24</v>
       </c>
       <c r="D447">
-        <v>0.0009324733856554511</v>
+        <v>0.0009324733856554512</v>
       </c>
     </row>
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C448">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C454">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C455">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C461">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C466">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C470">
@@ -6575,14 +6575,14 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C473">
         <v>24</v>
       </c>
       <c r="D473">
-        <v>0.0009324733856554511</v>
+        <v>0.0009324733856554512</v>
       </c>
     </row>
     <row r="474">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C480">
@@ -6679,7 +6679,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C481">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C482">
@@ -6705,7 +6705,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C483">
@@ -6718,7 +6718,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C484">
@@ -6744,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C486">
@@ -6757,7 +6757,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C487">
@@ -6770,7 +6770,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C488">
@@ -6790,7 +6790,7 @@
         <v>25</v>
       </c>
       <c r="D489">
-        <v>0.0009713264433910949</v>
+        <v>0.0009713264433910948</v>
       </c>
     </row>
     <row r="490">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C491">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C496">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C497">
@@ -6939,7 +6939,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C501">
@@ -6965,7 +6965,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C503">
@@ -6978,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C504">
@@ -6991,7 +6991,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C505">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C514">
@@ -7121,7 +7121,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C515">
@@ -7173,7 +7173,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C519">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C523">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C524">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C529">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C532">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C534">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C548">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C553">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C554">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C555">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C558">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C563">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C564">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C569">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C574">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C575">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C578">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C579">
@@ -7971,7 +7971,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C580">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C583">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C584">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C589">
@@ -8127,7 +8127,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C592">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C593">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C602">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C603">
@@ -8283,7 +8283,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C604">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C608">
@@ -8348,7 +8348,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C609">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C612">
@@ -8400,7 +8400,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C613">
@@ -8704,7 +8704,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C636">
@@ -8730,7 +8730,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C638">
@@ -9140,7 +9140,7 @@
         <v>249</v>
       </c>
       <c r="D669">
-        <v>0.009674411376175305</v>
+        <v>0.009674411376175304</v>
       </c>
     </row>
     <row r="670">
@@ -9283,7 +9283,7 @@
         <v>25</v>
       </c>
       <c r="D680">
-        <v>0.0009713264433910949</v>
+        <v>0.0009713264433910948</v>
       </c>
     </row>
     <row r="681">
@@ -9575,7 +9575,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C703">
@@ -9905,7 +9905,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C728">
@@ -9996,7 +9996,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C735">
@@ -10035,7 +10035,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C738">
@@ -10100,7 +10100,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C743">
@@ -10126,7 +10126,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C745">
@@ -10217,7 +10217,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C752">
@@ -10274,7 +10274,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C756">
@@ -10300,7 +10300,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C758">
@@ -10320,7 +10320,7 @@
         <v>25</v>
       </c>
       <c r="D759">
-        <v>0.0009713264433910949</v>
+        <v>0.0009713264433910948</v>
       </c>
     </row>
     <row r="760">
@@ -10391,7 +10391,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C765">
@@ -10437,7 +10437,7 @@
         <v>25</v>
       </c>
       <c r="D768">
-        <v>0.0009713264433910949</v>
+        <v>0.0009713264433910948</v>
       </c>
     </row>
     <row r="769">
@@ -10656,7 +10656,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C785">
@@ -10721,7 +10721,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C790">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C797">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C807">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C810">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C812">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C814">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C815">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C817">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C818">
@@ -11103,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C819">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C820">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C821">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C823">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C824">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C831">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C832">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C835">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C837">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C838">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C840">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C842">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C843">
@@ -11474,7 +11474,7 @@
         <v>25</v>
       </c>
       <c r="D847">
-        <v>0.0009713264433910949</v>
+        <v>0.0009713264433910948</v>
       </c>
     </row>
     <row r="848">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C852">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C866">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C870">
@@ -11935,7 +11935,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C883">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C889">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C898">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C899">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C931">
@@ -12585,7 +12585,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C933">
@@ -12767,7 +12767,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C947">
@@ -12793,7 +12793,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C949">
@@ -12891,7 +12891,7 @@
         <v>24</v>
       </c>
       <c r="D956">
-        <v>0.0009324733856554511</v>
+        <v>0.0009324733856554512</v>
       </c>
     </row>
     <row r="957">
@@ -13183,7 +13183,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C979">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C983">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C994">
@@ -13599,7 +13599,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1011">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1036">
@@ -14067,7 +14067,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1047">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1048">
@@ -14106,7 +14106,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1050">
@@ -14119,7 +14119,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1051">
@@ -14132,7 +14132,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1052">
@@ -14145,7 +14145,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1053">
@@ -14158,7 +14158,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1054">
@@ -14171,7 +14171,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1055">
@@ -14184,7 +14184,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1056">
@@ -14210,7 +14210,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1058">
@@ -14223,7 +14223,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1059">
@@ -14236,7 +14236,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1060">
@@ -14262,7 +14262,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1062">
@@ -14288,7 +14288,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1064">
@@ -14482,7 +14482,7 @@
         <v>25</v>
       </c>
       <c r="D1078">
-        <v>0.0009713264433910949</v>
+        <v>0.0009713264433910948</v>
       </c>
     </row>
     <row r="1079">
@@ -14514,7 +14514,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1081">
@@ -14566,7 +14566,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1085">
@@ -14644,7 +14644,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1091">
@@ -14748,7 +14748,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1099">
@@ -14865,7 +14865,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1108">
@@ -14878,7 +14878,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1109">
@@ -14956,7 +14956,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1115">
@@ -15034,7 +15034,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1121">
@@ -15125,7 +15125,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1128">
@@ -15398,7 +15398,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1149">
@@ -15489,7 +15489,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1156">
@@ -15502,7 +15502,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1157">
@@ -15554,7 +15554,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1161">
@@ -15567,7 +15567,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1162">
@@ -15619,7 +15619,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1166">
@@ -15762,7 +15762,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1177">
@@ -15840,7 +15840,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1183">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1194">
@@ -16014,7 +16014,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1196">
@@ -16092,7 +16092,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1202">
@@ -16105,7 +16105,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1203">
@@ -16144,7 +16144,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1206">
@@ -16183,7 +16183,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1209">
@@ -16286,7 +16286,7 @@
         <v>24</v>
       </c>
       <c r="D1216">
-        <v>0.0009324733856554511</v>
+        <v>0.0009324733856554512</v>
       </c>
     </row>
     <row r="1217">
@@ -16317,7 +16317,7 @@
         <v>24</v>
       </c>
       <c r="D1218">
-        <v>0.0009324733856554511</v>
+        <v>0.0009324733856554512</v>
       </c>
     </row>
     <row r="1219">
@@ -16336,7 +16336,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1220">
@@ -16349,7 +16349,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1221">
@@ -16427,7 +16427,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1227">
@@ -16570,7 +16570,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1238">
@@ -16635,7 +16635,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1243">
@@ -16713,7 +16713,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1249">
@@ -16739,7 +16739,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1251">
@@ -16843,7 +16843,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1259">
@@ -16895,7 +16895,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1263">
@@ -16908,7 +16908,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1264">
@@ -16921,7 +16921,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1265">
@@ -16934,7 +16934,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1266">
@@ -16947,7 +16947,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1267">
@@ -16960,7 +16960,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1268">
@@ -17373,7 +17373,7 @@
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1299">
@@ -17560,7 +17560,7 @@
     <row r="1313">
       <c r="B1313" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1313">
@@ -17981,7 +17981,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1345">
@@ -18207,7 +18207,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1362">
@@ -18220,7 +18220,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1363">
@@ -18233,7 +18233,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1364">
@@ -18259,7 +18259,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1366">
@@ -18285,7 +18285,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1368">
@@ -18337,7 +18337,7 @@
     <row r="1372">
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1372">
@@ -18350,7 +18350,7 @@
     <row r="1373">
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1373">
@@ -18589,7 +18589,7 @@
     <row r="1391">
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1391">
@@ -18641,7 +18641,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1395">
@@ -18771,7 +18771,7 @@
     <row r="1405">
       <c r="B1405" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1405">
@@ -18836,7 +18836,7 @@
     <row r="1410">
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1410">
@@ -18862,7 +18862,7 @@
     <row r="1412">
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1412">
@@ -19083,7 +19083,7 @@
     <row r="1429">
       <c r="B1429" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1429">
@@ -19096,7 +19096,7 @@
     <row r="1430">
       <c r="B1430" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1430">
@@ -19304,7 +19304,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1446">
@@ -19317,7 +19317,7 @@
     <row r="1447">
       <c r="B1447" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1447">
@@ -19356,7 +19356,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1450">
@@ -19369,7 +19369,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1451">
@@ -19486,7 +19486,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1460">
@@ -19538,7 +19538,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1464">
@@ -19551,7 +19551,7 @@
     <row r="1465">
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1465">
@@ -19590,7 +19590,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1468">
@@ -19616,7 +19616,7 @@
     <row r="1470">
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1470">
@@ -19668,7 +19668,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1474">
@@ -19785,7 +19785,7 @@
     <row r="1483">
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1483">
@@ -19837,7 +19837,7 @@
     <row r="1487">
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1487">
@@ -19850,7 +19850,7 @@
     <row r="1488">
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1488">
@@ -19902,7 +19902,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1492">
@@ -20006,7 +20006,7 @@
     <row r="1500">
       <c r="B1500" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1500">
@@ -20058,7 +20058,7 @@
     <row r="1504">
       <c r="B1504" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1504">
@@ -20136,7 +20136,7 @@
     <row r="1510">
       <c r="B1510" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1510">
@@ -20565,7 +20565,7 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1543">
@@ -20682,7 +20682,7 @@
     <row r="1552">
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1552">
@@ -20695,7 +20695,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1553">
@@ -20887,7 +20887,7 @@
     <row r="1567">
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1567">
@@ -20933,7 +20933,7 @@
         <v>24</v>
       </c>
       <c r="D1570">
-        <v>0.0009324733856554511</v>
+        <v>0.0009324733856554512</v>
       </c>
     </row>
     <row r="1571">
@@ -21004,7 +21004,7 @@
     <row r="1576">
       <c r="B1576" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1576">
@@ -21121,7 +21121,7 @@
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1585">
@@ -21134,7 +21134,7 @@
     <row r="1586">
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1586">
@@ -21147,7 +21147,7 @@
     <row r="1587">
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1587">
@@ -21277,7 +21277,7 @@
     <row r="1597">
       <c r="B1597" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1597">
@@ -21290,7 +21290,7 @@
     <row r="1598">
       <c r="B1598" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1598">
@@ -21329,7 +21329,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1601">
@@ -21428,41 +21428,6 @@
       </c>
       <c r="D1608">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1610">
-      <c r="A1610" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1613">
-      <c r="A1613" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
